--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tank-game-server\richguy\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7E502-ABC5-41FD-9D9E-89E6EFA77131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5142BC-11FC-4FB4-B354-A10FC915EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,38 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国务院</t>
-  </si>
-  <si>
-    <t>信息部</t>
-  </si>
-  <si>
-    <t>发改委</t>
-  </si>
-  <si>
-    <t>半导体</t>
-  </si>
-  <si>
-    <t>锂</t>
-  </si>
-  <si>
-    <t>美联储</t>
-  </si>
-  <si>
-    <t>光伏</t>
-  </si>
-  <si>
-    <t>鲍威尔</t>
-  </si>
-  <si>
-    <t>美国相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
@@ -72,18 +44,214 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国家重要部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发改委</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人社部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城乡建设部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外交部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家发展和改革委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学技术部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家民族事务委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家安全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源和社会保障部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态环境部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业农村部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化和旅游部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退役军人事务部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业和信息化部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民政部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然资源部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房和城乡建设部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家卫生健康委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急管理部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美联储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍威尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +280,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF262626"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,12 +307,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,96 +598,879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5142BC-11FC-4FB4-B354-A10FC915EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62A3D7-18DA-4B7B-A877-5A437811264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,26 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文化部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅游部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城乡建设部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外交部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国家民族事务委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>国家安全部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>人力资源和社会保障部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生态环境部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,14 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文化和旅游部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>退役军人事务部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中国人民银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -191,34 +155,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自然资源部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房和城乡建设部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水利部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>商务部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国家卫生健康委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应急管理部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审计署</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>半导体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -244,6 +184,42 @@
   </si>
   <si>
     <t>鲍威尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +643,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -680,7 +656,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -693,7 +669,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -706,7 +682,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -719,7 +695,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -732,7 +708,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -745,7 +721,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -758,7 +734,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -771,7 +747,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -784,7 +760,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -797,7 +773,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -810,7 +786,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -823,7 +799,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -835,9 +811,6 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -849,7 +822,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -861,6 +834,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -872,7 +848,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -885,7 +861,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -898,7 +874,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -911,7 +887,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -924,7 +900,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -937,7 +913,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -950,7 +926,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -963,7 +939,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -976,7 +952,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -989,7 +965,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1002,7 +978,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1015,7 +991,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1028,7 +1004,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1041,7 +1017,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1053,9 +1029,6 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1066,9 +1039,6 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1080,7 +1050,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1093,7 +1063,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1106,7 +1076,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1119,7 +1089,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1132,7 +1102,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1145,7 +1115,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1158,7 +1128,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1171,7 +1141,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1184,7 +1154,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1197,7 +1167,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1229,6 +1199,12 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1239,6 +1215,9 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1279,9 +1258,6 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1292,9 +1268,6 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1305,9 +1278,6 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1318,9 +1288,6 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1351,12 +1318,6 @@
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1367,9 +1328,6 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1410,64 +1368,34 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-    </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62A3D7-18DA-4B7B-A877-5A437811264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118E36B-5167-4D37-9746-A4D1B929D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>粮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宇宙</t>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1179,6 +1194,9 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1189,6 +1207,9 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1200,10 +1221,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1216,7 +1234,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1238,6 +1256,12 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1248,6 +1272,9 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1368,34 +1395,64 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+    </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118E36B-5167-4D37-9746-A4D1B929D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435BD7BB-766C-4DB0-A9CB-1B8361CB0BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>基建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,7 +727,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -736,7 +740,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -749,7 +753,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -762,7 +766,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -775,7 +779,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -788,7 +792,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -801,7 +805,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -814,7 +818,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -826,6 +830,9 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -836,9 +843,6 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -850,7 +854,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -863,7 +867,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -876,7 +880,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -889,7 +893,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -902,7 +906,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -915,7 +919,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -928,7 +932,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -941,7 +945,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -954,7 +958,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -967,7 +971,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -980,7 +984,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -993,7 +997,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1006,7 +1010,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1019,7 +1023,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1032,7 +1036,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1044,6 +1048,9 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1064,9 +1071,6 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1078,7 +1082,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1091,7 +1095,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1104,7 +1108,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1117,7 +1121,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1130,7 +1134,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1143,7 +1147,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1156,7 +1160,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1169,7 +1173,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1182,7 +1186,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1195,7 +1199,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1208,7 +1212,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1221,7 +1225,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1246,6 +1250,9 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1256,12 +1263,6 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1273,7 +1274,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1285,6 +1289,9 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1425,7 +1432,14 @@
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
@@ -1436,8 +1450,8 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
@@ -1448,11 +1462,14 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435BD7BB-766C-4DB0-A9CB-1B8361CB0BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6F0A0F-EDBF-4A90-9358-04DBFD3AC743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>工信部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1263,6 +1267,9 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1273,12 +1280,6 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1290,7 +1291,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1302,6 +1306,9 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1442,7 +1449,14 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
@@ -1453,8 +1467,8 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
@@ -1465,11 +1479,14 @@
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6F0A0F-EDBF-4A90-9358-04DBFD3AC743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25762FD2-C29D-4777-91B3-8EE24D068E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,14 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>锂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光伏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>猪肉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,14 +188,6 @@
   </si>
   <si>
     <t>一号文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -597,24 +581,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -638,7 +622,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -648,7 +632,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,9 +648,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -677,9 +661,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,9 +674,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -703,7 +687,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -716,7 +700,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -729,9 +713,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -742,7 +726,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -755,7 +739,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -768,7 +752,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -781,7 +765,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,7 +778,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -807,7 +791,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -820,7 +804,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -833,7 +817,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -846,7 +830,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -856,7 +840,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -869,7 +853,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -882,7 +866,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -895,7 +879,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -908,7 +892,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -921,7 +905,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -934,7 +918,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -947,7 +931,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -960,7 +944,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -973,7 +957,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -986,7 +970,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -999,7 +983,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +996,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1009,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +1022,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1035,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1048,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1074,7 +1058,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1084,7 +1068,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1097,9 +1081,9 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1110,9 +1094,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1123,9 +1107,9 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1136,7 +1120,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1149,9 +1133,9 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1162,9 +1146,9 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1175,9 +1159,9 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1188,7 +1172,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1201,7 +1185,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1214,9 +1198,9 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1227,10 +1211,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1240,9 +1221,12 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1253,9 +1237,9 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1266,10 +1250,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1279,7 +1260,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1289,13 +1270,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1305,10 +1280,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1318,7 +1290,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1328,7 +1300,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1338,7 +1310,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1348,7 +1320,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1358,7 +1330,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1368,7 +1340,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1378,7 +1350,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1388,7 +1360,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1398,7 +1370,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1408,7 +1380,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1418,75 +1390,35 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25762FD2-C29D-4777-91B3-8EE24D068E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29130E1A-8B8F-4D1D-A9E7-4A41741083E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -228,6 +228,12 @@
   <si>
     <t>黄金</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权质押</t>
+  </si>
+  <si>
+    <t>可转债获批</t>
   </si>
 </sst>
 </file>
@@ -584,21 +590,21 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -606,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +628,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -632,7 +638,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,7 +654,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -661,7 +667,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -674,7 +680,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -687,7 +693,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -700,7 +706,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -713,7 +719,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -726,7 +732,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -739,7 +745,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -752,7 +758,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -765,7 +771,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -778,7 +784,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,7 +797,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,7 +810,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -817,7 +823,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -830,7 +836,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -840,7 +846,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -853,7 +859,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -866,7 +872,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -892,7 +898,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -905,7 +911,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -918,7 +924,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -931,7 +937,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -944,7 +950,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -957,7 +963,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -970,7 +976,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -983,7 +989,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -996,7 +1002,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1009,7 +1015,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1022,7 +1028,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1035,7 +1041,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1048,7 +1054,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1058,7 +1064,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1068,7 +1074,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1081,7 +1087,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +1100,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1107,7 +1113,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1133,7 +1139,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1152,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1159,7 +1165,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1172,7 +1178,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1185,7 +1191,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1198,7 +1204,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1211,7 +1217,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1221,7 +1227,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -1237,7 +1243,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
@@ -1250,7 +1256,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1260,7 +1266,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1270,7 +1276,10 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1280,7 +1289,10 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1290,7 +1302,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1300,7 +1312,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1310,7 +1322,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1320,7 +1332,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1330,7 +1342,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1340,7 +1352,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1350,7 +1362,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1360,7 +1372,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1370,7 +1382,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1380,7 +1392,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1390,34 +1402,34 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
     </row>
   </sheetData>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29130E1A-8B8F-4D1D-A9E7-4A41741083E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8A588F-8E3E-4391-B3F7-429C72A01B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>可转债获批</t>
+  </si>
+  <si>
+    <t>国资委</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -587,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,6 +841,9 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -847,9 +854,6 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -861,7 +865,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -874,7 +878,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -887,7 +891,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -900,7 +904,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -913,7 +917,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -926,7 +930,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -939,7 +943,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -952,7 +956,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -965,7 +969,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -978,7 +982,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -991,7 +995,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1004,7 +1008,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1017,7 +1021,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1030,7 +1034,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1043,7 +1047,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1055,6 +1059,9 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1075,9 +1082,6 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1089,7 +1093,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1102,7 +1106,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1115,7 +1119,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1128,7 +1132,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1141,7 +1145,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1154,7 +1158,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1167,7 +1171,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1180,7 +1184,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1193,7 +1197,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1206,7 +1210,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1218,6 +1222,9 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1228,12 +1235,6 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1245,7 +1246,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1257,6 +1261,9 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1277,9 +1284,6 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1291,7 +1295,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1303,6 +1307,9 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1403,7 +1410,14 @@
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -1414,8 +1428,8 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
@@ -1426,11 +1440,14 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8A588F-8E3E-4391-B3F7-429C72A01B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F6984-5105-4626-8736-F383468D5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -238,6 +238,9 @@
   <si>
     <t>国资委</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆回购</t>
   </si>
 </sst>
 </file>
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1320,6 +1323,9 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F6984-5105-4626-8736-F383468D5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA635E6B-368A-4DD8-9D7F-DA724B4555F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>逆回购</t>
+  </si>
+  <si>
+    <t>涨停分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停潮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞价看龙头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1356,6 +1368,9 @@
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1366,6 +1381,9 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1376,6 +1394,9 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA635E6B-368A-4DD8-9D7F-DA724B4555F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82935D40-6554-4944-959E-3524F759F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +253,25 @@
   <si>
     <t>竞价看龙头</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异动拉升</t>
+  </si>
+  <si>
+    <t>快讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡走强</t>
+  </si>
+  <si>
+    <t>异动</t>
+  </si>
+  <si>
+    <t>震荡走低</t>
+  </si>
+  <si>
+    <t>午后拉升</t>
   </si>
 </sst>
 </file>
@@ -608,22 +627,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,7 +666,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -657,7 +676,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -673,7 +692,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -686,7 +705,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -699,7 +718,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -712,7 +731,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -725,7 +744,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,7 +757,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -751,7 +770,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +783,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -777,7 +796,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -790,7 +809,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -803,7 +822,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -816,7 +835,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -829,7 +848,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -842,7 +861,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -855,7 +874,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -868,7 +887,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -878,7 +897,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -891,7 +910,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -904,7 +923,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -917,7 +936,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -930,7 +949,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -943,7 +962,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -956,7 +975,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -969,7 +988,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -982,7 +1001,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -995,7 +1014,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1008,7 +1027,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1040,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1053,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1047,7 +1066,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1079,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1073,7 +1092,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1086,7 +1105,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1096,7 +1115,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1106,7 +1125,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1119,7 +1138,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1132,7 +1151,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1145,7 +1164,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1158,7 +1177,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1171,7 +1190,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1184,7 +1203,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1197,7 +1216,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1229,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1223,7 +1242,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1236,7 +1255,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1249,7 +1268,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1259,7 +1278,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1294,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
@@ -1288,7 +1307,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1298,7 +1317,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1308,7 +1327,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -1321,7 +1340,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1353,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -1347,7 +1366,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1357,7 +1376,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1367,7 +1386,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -1380,7 +1399,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1393,7 +1412,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -1406,7 +1425,10 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1416,7 +1438,10 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1426,7 +1451,10 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1436,7 +1464,10 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1446,34 +1477,38 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
     </row>
   </sheetData>

--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -1,265 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82935D40-6554-4944-959E-3524F759F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>word</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关键词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国务院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国家重要部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>习近平</t>
+  </si>
+  <si>
+    <t>一号文件</t>
   </si>
   <si>
     <t>工业部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>信息部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信部</t>
   </si>
   <si>
     <t>发改委</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>科学部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人社部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生态部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交通部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>运输部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>农业部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>农村部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国资委</t>
   </si>
   <si>
     <t>外交部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国家发展和改革委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>科学技术部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国家安全部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>司法部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生态环境部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交通运输部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>农业农村部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国人民银行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国防部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>教育部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工业和信息化部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公安部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>民政部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>财政部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商务部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>半导体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核电</t>
+  </si>
+  <si>
+    <t>煤炭</t>
   </si>
   <si>
     <t>猪肉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子</t>
+  </si>
+  <si>
+    <t>粮食</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>元宇宙</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>基建</t>
+  </si>
+  <si>
+    <t>黄金</t>
   </si>
   <si>
     <t>美联储</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美国相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鲍威尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习近平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤炭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宇宙</t>
-  </si>
-  <si>
-    <t>互联网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债获批</t>
   </si>
   <si>
     <t>股权质押</t>
   </si>
   <si>
-    <t>可转债获批</t>
-  </si>
-  <si>
-    <t>国资委</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>逆回购</t>
   </si>
   <si>
     <t>涨停分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>涨停潮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>竞价看龙头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>异动拉升</t>
   </si>
   <si>
     <t>快讯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>震荡走强</t>
@@ -272,31 +206,26 @@
   </si>
   <si>
     <t>午后拉升</t>
+  </si>
+  <si>
+    <t>人民币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,21 +237,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF262626"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -330,33 +583,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -405,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -440,7 +976,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -614,45 +1150,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -666,7 +1197,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:10">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -676,7 +1207,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,9 +1223,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -705,9 +1236,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,9 +1249,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -731,9 +1262,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -744,9 +1275,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -757,9 +1288,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -770,9 +1301,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -783,9 +1314,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -796,9 +1327,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -809,9 +1340,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -822,9 +1353,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -835,9 +1366,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -848,9 +1379,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -861,9 +1392,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -874,9 +1405,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -887,7 +1418,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:10">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -897,9 +1428,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -910,9 +1441,9 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -923,9 +1454,9 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -936,9 +1467,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -949,9 +1480,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -962,9 +1493,9 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -975,9 +1506,9 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -988,9 +1519,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1001,9 +1532,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1014,9 +1545,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1027,9 +1558,9 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1040,9 +1571,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1053,9 +1584,9 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1066,9 +1597,9 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1079,9 +1610,9 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1092,9 +1623,9 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1105,7 +1636,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:10">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1115,7 +1646,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:10">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1125,9 +1656,9 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1138,9 +1669,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1151,9 +1682,9 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1164,9 +1695,9 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1177,9 +1708,9 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1190,9 +1721,9 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1203,9 +1734,9 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1216,9 +1747,9 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1229,9 +1760,9 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1242,9 +1773,9 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1255,9 +1786,9 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1268,7 +1799,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:10">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1278,12 +1809,12 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1294,9 +1825,9 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1307,7 +1838,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:10">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1317,7 +1848,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:10">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1327,7 +1858,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -1340,9 +1871,9 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1353,7 +1884,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -1366,7 +1897,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:10">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1376,7 +1907,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:10">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1386,7 +1917,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -1399,7 +1930,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1412,7 +1943,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -1425,7 +1956,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
@@ -1438,7 +1969,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -1451,7 +1982,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1995,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
@@ -1477,43 +2008,33 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1">
       <c r="A83" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/KeyWordResource.xlsx
+++ b/src/main/resources/excel/KeyWordResource.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A26119A-E0A9-4B4C-BA89-28901409F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,14 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,345 +237,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -583,251 +259,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -838,61 +272,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1150,30 +540,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +587,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1207,7 +597,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +613,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +626,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +639,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +652,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +665,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +678,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +691,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +704,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +717,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +730,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +743,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +756,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +769,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +782,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1405,7 +795,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +808,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1428,7 +818,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +831,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +844,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +857,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +870,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +883,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +896,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +909,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1532,7 +922,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +935,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +948,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +961,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +974,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1597,7 +987,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1610,7 +1000,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1013,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1636,7 +1026,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1646,7 +1036,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1656,7 +1046,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1669,7 +1059,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1682,7 +1072,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1085,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1708,7 +1098,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1721,7 +1111,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1734,7 +1124,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1747,7 +1137,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1760,7 +1150,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1163,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1786,7 +1176,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1189,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1809,7 +1199,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -1825,7 +1215,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1838,7 +1228,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1848,7 +1238,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1858,9 +1248,12 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1871,9 +1264,12 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1884,9 +1280,12 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1897,7 +1296,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1907,7 +1312,10 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1917,9 +1325,9 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>55</v>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1930,9 +1338,9 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>56</v>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1943,9 +1351,9 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1956,9 +1364,9 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
-        <v>58</v>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1969,10 +1377,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>59</v>
-      </c>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1982,10 +1387,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1995,10 +1397,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
-        <v>61</v>
-      </c>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2008,33 +1407,18 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>